--- a/plots/basic_stats/two_var_stats/allmus_accreditation_vs_region_name-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_accreditation_vs_region_name-PC.xlsx
@@ -444,43 +444,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.034</v>
+        <v>0.982</v>
       </c>
       <c r="D2">
-        <v>6.529</v>
+        <v>6.416</v>
       </c>
       <c r="E2">
-        <v>2.622</v>
+        <v>2.538</v>
       </c>
       <c r="F2">
-        <v>2.622</v>
+        <v>2.514</v>
       </c>
       <c r="G2">
-        <v>3.983</v>
+        <v>3.807</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>3.136</v>
       </c>
       <c r="I2">
-        <v>1.588</v>
+        <v>1.508</v>
       </c>
       <c r="J2">
-        <v>3.504</v>
+        <v>3.328</v>
       </c>
       <c r="K2">
-        <v>5.899</v>
+        <v>5.65</v>
       </c>
       <c r="L2">
-        <v>5.092</v>
+        <v>4.884</v>
       </c>
       <c r="M2">
-        <v>3.176</v>
+        <v>3.017</v>
       </c>
       <c r="N2">
-        <v>3.403</v>
+        <v>3.352</v>
       </c>
       <c r="O2">
-        <v>42.452</v>
+        <v>41.132</v>
       </c>
     </row>
     <row r="3">
@@ -493,43 +493,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.412</v>
+        <v>1.58</v>
       </c>
       <c r="D3">
-        <v>8.419000000000001</v>
+        <v>8.475</v>
       </c>
       <c r="E3">
-        <v>3.529</v>
+        <v>3.663</v>
       </c>
       <c r="F3">
-        <v>4.058</v>
+        <v>4.094</v>
       </c>
       <c r="G3">
-        <v>5.924</v>
+        <v>6.105</v>
       </c>
       <c r="H3">
-        <v>4.159</v>
+        <v>4.453</v>
       </c>
       <c r="I3">
-        <v>1.412</v>
+        <v>1.748</v>
       </c>
       <c r="J3">
-        <v>4.462</v>
+        <v>4.453</v>
       </c>
       <c r="K3">
-        <v>8.52</v>
+        <v>8.451000000000001</v>
       </c>
       <c r="L3">
-        <v>8.494999999999999</v>
+        <v>8.571</v>
       </c>
       <c r="M3">
-        <v>3.781</v>
+        <v>3.759</v>
       </c>
       <c r="N3">
-        <v>3.378</v>
+        <v>3.519</v>
       </c>
       <c r="O3">
-        <v>57.549</v>
+        <v>58.871</v>
       </c>
     </row>
     <row r="4">
@@ -542,43 +542,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.446</v>
+        <v>2.562</v>
       </c>
       <c r="D4">
-        <v>14.948</v>
+        <v>14.891</v>
       </c>
       <c r="E4">
-        <v>6.151</v>
+        <v>6.201</v>
       </c>
       <c r="F4">
-        <v>6.68</v>
+        <v>6.608000000000001</v>
       </c>
       <c r="G4">
-        <v>9.907</v>
+        <v>9.912000000000001</v>
       </c>
       <c r="H4">
-        <v>7.159</v>
+        <v>7.589</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>3.256</v>
       </c>
       <c r="J4">
-        <v>7.965999999999999</v>
+        <v>7.781000000000001</v>
       </c>
       <c r="K4">
-        <v>14.419</v>
+        <v>14.101</v>
       </c>
       <c r="L4">
-        <v>13.587</v>
+        <v>13.455</v>
       </c>
       <c r="M4">
-        <v>6.957000000000001</v>
+        <v>6.776</v>
       </c>
       <c r="N4">
-        <v>6.781000000000001</v>
+        <v>6.871</v>
       </c>
       <c r="O4">
-        <v>100.001</v>
+        <v>100.003</v>
       </c>
     </row>
   </sheetData>
